--- a/currentbuild/ValueSet-no-basis-connection-type.valueset.xlsx
+++ b/currentbuild/ValueSet-no-basis-connection-type.valueset.xlsx
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NoBasisConnectionType</t>
+    <t>NoBasisConnectionTypeVS</t>
   </si>
   <si>
     <t>Title</t>

--- a/currentbuild/ValueSet-no-basis-connection-type.valueset.xlsx
+++ b/currentbuild/ValueSet-no-basis-connection-type.valueset.xlsx
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NoBasisConnectionTypeVS</t>
+    <t>NoBasisConnectionType</t>
   </si>
   <si>
     <t>Title</t>
